--- a/biology/Médecine/Béatrice_Steiner/Béatrice_Steiner.xlsx
+++ b/biology/Médecine/Béatrice_Steiner/Béatrice_Steiner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Steiner</t>
+          <t>Béatrice_Steiner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Béatrice Steiner, psychiatre, s’intéresse dès sa thèse de doctorat et son mémoire de psychiatrie, à l’expression picturale des patients hospitalisés, puis devenue psychanalyste, de ses analysants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Steiner</t>
+          <t>Béatrice_Steiner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre de la Société française de psychopathologie de l’expression (SFPE) elle en codirige pendant plusieurs années la Section du patrimoine avec le docteur Claude Wiart maintenant décédé, leur objectif étant de recenser et faire connaître les œuvres créées en milieu psychiatrique en France depuis cent ans. 
 À ce titre, elle a organisé à plusieurs « Journées de la SFPE » et a participé dans ce cadre à la réalisation de plusieurs expositions, catalogues, actes de colloques.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Steiner</t>
+          <t>Béatrice_Steiner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Principales contributions dans ce domaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Signe, cendre ou cimaise (1994)
 Les crépuscules du monde de Serge Sauphar (1998)
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Steiner</t>
+          <t>Béatrice_Steiner</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la médecine   Portail de la psychologie   Portail de la France                   </t>
         </is>
